--- a/Paper initial documents/Ablation/Ablation matrix.xlsx
+++ b/Paper initial documents/Ablation/Ablation matrix.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="A1:M10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
